--- a/01 - Studium proudění viskózní kapaliny trubicemi kruhového průřezu/Měření.xlsx
+++ b/01 - Studium proudění viskózní kapaliny trubicemi kruhového průřezu/Měření.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\Praktikum-I\01 - Studium proudění viskózní kapaliny trubicemi kruhového průřezu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BA7983-D4D8-4344-9F88-81EA44768359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13924142-F1EA-457C-AD82-E10CF4729994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B1A6E543-93D1-4E69-87E0-7B5E6B6C9A77}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>vnitřní průměr</t>
   </si>
@@ -148,11 +148,21 @@
   <si>
     <t>Gravitační zrychlení</t>
   </si>
+  <si>
+    <t>chyba x</t>
+  </si>
+  <si>
+    <t>chyba y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -190,10 +200,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -257,7 +272,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12192843498113032"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.83240460327074506"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -290,7 +315,7 @@
             <c:numRef>
               <c:f>List1!$F$24:$F$45</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2251.3767534000003</c:v>
@@ -365,73 +390,73 @@
             <c:numRef>
               <c:f>List1!$G$24:$G$45</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>9.652509652509654E-3</c:v>
+                  <c:v>9.6525096525096536</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3023255813953487E-3</c:v>
+                  <c:v>9.3023255813953494</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2635479388605835E-3</c:v>
+                  <c:v>9.263547938860583</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9365504915102784E-3</c:v>
+                  <c:v>8.9365504915102782</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5689802913453302E-3</c:v>
+                  <c:v>8.5689802913453299</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3998320033599333E-3</c:v>
+                  <c:v>8.3998320033599327</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.1300813008130073E-3</c:v>
+                  <c:v>8.1300813008130071</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.9396585946804286E-3</c:v>
+                  <c:v>7.939658594680429</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.4321813452248239E-3</c:v>
+                  <c:v>7.4321813452248238</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.4156470152020775E-3</c:v>
+                  <c:v>7.4156470152020777</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.1123755334281651E-3</c:v>
+                  <c:v>7.1123755334281649</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.1428571428571435E-3</c:v>
+                  <c:v>7.1428571428571432</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.0397747272087294E-3</c:v>
+                  <c:v>7.0397747272087292</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.8728522336769758E-3</c:v>
+                  <c:v>6.8728522336769755</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.8446269678302538E-3</c:v>
+                  <c:v>6.844626967830254</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.4453754431195616E-3</c:v>
+                  <c:v>6.4453754431195618</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9808612440191396E-3</c:v>
+                  <c:v>5.98086124401914</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.2938062466913712E-3</c:v>
+                  <c:v>5.2938062466913713</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.6849379245725003E-3</c:v>
+                  <c:v>4.6849379245725</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.9169604386995694E-3</c:v>
+                  <c:v>3.9169604386995696</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.8649190660363848E-3</c:v>
+                  <c:v>2.8649190660363848</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.8900018900018902E-3</c:v>
+                  <c:v>1.8900018900018902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -475,7 +500,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -537,7 +562,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -707,9 +732,9 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>List1!$G$87:$G$97</c:f>
+              <c:f>List1!$G$85:$G$95</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>685.20162060000007</c:v>
@@ -749,42 +774,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>List1!$H$87:$H$97</c:f>
+              <c:f>List1!$H$85:$H$95</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4.3121581825830875E-3</c:v>
+                  <c:v>4.3121581825830875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.813336463958675E-3</c:v>
+                  <c:v>4.8133364639586746</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1751592356687904E-3</c:v>
+                  <c:v>5.1751592356687901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8139534883720938E-3</c:v>
+                  <c:v>5.8139534883720936</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9575704736995064E-3</c:v>
+                  <c:v>5.9575704736995068</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.418284283030682E-3</c:v>
+                  <c:v>6.4182842830306823</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.6666666666666671E-3</c:v>
+                  <c:v>6.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.2727272727272727E-3</c:v>
+                  <c:v>7.2727272727272725</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5757575757575768E-3</c:v>
+                  <c:v>7.575757575757577</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8376205787781348E-3</c:v>
+                  <c:v>7.837620578778135</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.9494496534855286E-3</c:v>
+                  <c:v>7.9494496534855283</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -828,7 +853,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -890,7 +915,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1060,10 +1085,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>List1!$G$63:$G$72</c:f>
+              <c:f>List1!$G$63:$G$70</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1076.7454038000001</c:v>
                 </c:pt>
@@ -1071,27 +1096,21 @@
                   <c:v>1174.6313496</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1272.5172954000002</c:v>
+                  <c:v>1370.4032412000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1370.4032412000001</c:v>
+                  <c:v>1468.2891870000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1468.2891870000001</c:v>
+                  <c:v>1566.1751328</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1566.1751328</c:v>
+                  <c:v>1664.0610786000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1664.0610786000002</c:v>
+                  <c:v>1761.9470243999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1761.9470243999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1859.8329702000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>1957.7189160000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -1099,33 +1118,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>List1!$H$63:$H$72</c:f>
+              <c:f>List1!$H$63:$H$70</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.9988007195682589E-3</c:v>
+                  <c:v>1.9988007195682589</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.278209595282766E-3</c:v>
+                  <c:v>2.2782095952827661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7374760470845878</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7374760470845879E-3</c:v>
+                  <c:v>2.9276985743380854</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9276985743380856E-3</c:v>
+                  <c:v>3.2381866154953234</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2381866154953232E-3</c:v>
+                  <c:v>3.2954358213873789</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2954358213873789E-3</c:v>
+                  <c:v>3.4971148802238154</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4971148802238157E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.5154680594616308E-3</c:v>
+                  <c:v>3.515468059461631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1169,7 +1188,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1231,7 +1250,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2996,16 +3015,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3032,16 +3051,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3068,16 +3087,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3106,9 +3125,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 –⁠ 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3146,7 +3165,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 –⁠ 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3252,7 +3271,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 –⁠ 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3394,7 +3413,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3405,10 +3424,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:H97"/>
+  <dimension ref="B2:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3420,6 +3439,8 @@
     <col min="6" max="6" width="12.109375" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
@@ -3497,7 +3518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>29</v>
       </c>
@@ -3514,22 +3535,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>22.1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D20">
         <v>22.2</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -3548,8 +3569,14 @@
       <c r="G23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>23</v>
       </c>
@@ -3559,19 +3586,27 @@
       <c r="D24">
         <v>0.2</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
         <v>20.72</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="5">
         <f t="shared" ref="F24:F45" si="0">C24*$E$18*$G$18</f>
         <v>2251.3767534000003</v>
       </c>
-      <c r="G24">
-        <f>D24/E24</f>
-        <v>9.652509652509654E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G24" s="3">
+        <f>D24/E24*1000</f>
+        <v>9.6525096525096536</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" ref="H24:H36" si="1">F24*SQRT(((0.002*0.002)/(C24*C24))+1/(997*997))</f>
+        <v>19.706993232865138</v>
+      </c>
+      <c r="I24" s="1">
+        <f>G24*SQRT(((0.01*0.01)/(D24*D24))+((0.2*0.2)/(E24*E24)))</f>
+        <v>0.49153655105487631</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>22</v>
       </c>
@@ -3581,19 +3616,27 @@
       <c r="D25">
         <v>0.2</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
         <v>21.5</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="5">
         <f t="shared" si="0"/>
         <v>2153.4908076000002</v>
       </c>
-      <c r="G25">
-        <f t="shared" ref="G25:G45" si="1">D25/E25</f>
-        <v>9.3023255813953487E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G25" s="3">
+        <f t="shared" ref="G25:G45" si="2">D25/E25*1000</f>
+        <v>9.3023255813953494</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="1"/>
+        <v>19.69598458865763</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" ref="I25:I45" si="3">G25*SQRT(((0.01*0.01)/(D25*D25))+((0.2*0.2)/(E25*E25)))</f>
+        <v>0.47309740894816737</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>21</v>
       </c>
@@ -3603,19 +3646,27 @@
       <c r="D26">
         <v>0.2</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
         <v>21.59</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="5">
         <f t="shared" si="0"/>
         <v>2055.6048618</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
+        <f t="shared" si="2"/>
+        <v>9.263547938860583</v>
+      </c>
+      <c r="H26" s="1">
         <f t="shared" si="1"/>
-        <v>9.2635479388605835E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+        <v>19.685459465535562</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.47105968517764851</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>20</v>
       </c>
@@ -3625,19 +3676,27 @@
       <c r="D27">
         <v>0.2</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
         <v>22.38</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="5">
         <f t="shared" si="0"/>
         <v>1957.7189160000003</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
+        <f t="shared" si="2"/>
+        <v>8.9365504915102782</v>
+      </c>
+      <c r="H27" s="1">
         <f t="shared" si="1"/>
-        <v>8.9365504915102784E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+        <v>19.675418639459902</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4539083226052173</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>19</v>
       </c>
@@ -3647,19 +3706,27 @@
       <c r="D28">
         <v>0.2</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
         <v>23.34</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="5">
         <f t="shared" si="0"/>
         <v>1859.8329702000001</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
+        <f t="shared" si="2"/>
+        <v>8.5689802913453299</v>
+      </c>
+      <c r="H28" s="1">
         <f t="shared" si="1"/>
-        <v>8.5689802913453302E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+        <v>19.665862852235257</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="3"/>
+        <v>0.43469546186539387</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>18</v>
       </c>
@@ -3669,19 +3736,27 @@
       <c r="D29">
         <v>0.2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4">
         <v>23.81</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="5">
         <f t="shared" si="0"/>
         <v>1761.9470243999999</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
+        <f t="shared" si="2"/>
+        <v>8.3998320033599327</v>
+      </c>
+      <c r="H29" s="1">
         <f t="shared" si="1"/>
-        <v>8.3998320033599333E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+        <v>19.656792811239708</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="3"/>
+        <v>0.42587704743799043</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>17</v>
       </c>
@@ -3691,19 +3766,27 @@
       <c r="D30">
         <v>0.2</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="4">
         <v>24.6</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="5">
         <f t="shared" si="0"/>
         <v>1664.0610786000002</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
+        <f t="shared" si="2"/>
+        <v>8.1300813008130071</v>
+      </c>
+      <c r="H30" s="1">
         <f t="shared" si="1"/>
-        <v>8.1300813008130073E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+        <v>19.648209189166359</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="3"/>
+        <v>0.41184284604756671</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>16</v>
       </c>
@@ -3713,19 +3796,27 @@
       <c r="D31">
         <v>0.2</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="4">
         <v>25.19</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="5">
         <f t="shared" si="0"/>
         <v>1566.1751328</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
+        <f t="shared" si="2"/>
+        <v>7.939658594680429</v>
+      </c>
+      <c r="H31" s="1">
         <f t="shared" si="1"/>
-        <v>7.9396585946804286E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+        <v>19.640112623776769</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="3"/>
+        <v>0.40195678680851121</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>15</v>
       </c>
@@ -3735,19 +3826,27 @@
       <c r="D32">
         <v>0.2</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="4">
         <v>26.91</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="5">
         <f t="shared" si="0"/>
         <v>1468.2891870000001</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
+        <f t="shared" si="2"/>
+        <v>7.4321813452248238</v>
+      </c>
+      <c r="H32" s="1">
         <f t="shared" si="1"/>
-        <v>7.4321813452248239E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+        <v>19.632503717666474</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="3"/>
+        <v>0.37569197534902382</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>14</v>
       </c>
@@ -3757,19 +3856,27 @@
       <c r="D33">
         <v>0.2</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="4">
         <v>26.97</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="5">
         <f t="shared" si="0"/>
         <v>1370.4032412000001</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
+        <f t="shared" si="2"/>
+        <v>7.4156470152020777</v>
+      </c>
+      <c r="H33" s="1">
         <f t="shared" si="1"/>
-        <v>7.4156470152020775E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+        <v>19.625383038042798</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="3"/>
+        <v>0.37483816771246586</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>13</v>
       </c>
@@ -3779,19 +3886,27 @@
       <c r="D34">
         <v>0.2</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="4">
         <v>28.12</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="5">
         <f t="shared" si="0"/>
         <v>1272.5172954000002</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
+        <f t="shared" si="2"/>
+        <v>7.1123755334281649</v>
+      </c>
+      <c r="H34" s="1">
         <f t="shared" si="1"/>
-        <v>7.1123755334281651E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+        <v>19.618751116515192</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="3"/>
+        <v>0.35919861658448315</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>12</v>
       </c>
@@ -3801,19 +3916,27 @@
       <c r="D35">
         <v>0.2</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="4">
         <v>28</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="5">
         <f t="shared" si="0"/>
         <v>1174.6313496</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
+        <f t="shared" si="2"/>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="H35" s="1">
         <f t="shared" si="1"/>
-        <v>7.1428571428571435E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+        <v>19.612608448898172</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="3"/>
+        <v>0.36076876591150381</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>11</v>
       </c>
@@ -3823,19 +3946,27 @@
       <c r="D36">
         <v>0.2</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="4">
         <v>28.41</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="5">
         <f t="shared" si="0"/>
         <v>1076.7454038000001</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
+        <f t="shared" si="2"/>
+        <v>7.0397747272087292</v>
+      </c>
+      <c r="H36" s="1">
         <f t="shared" si="1"/>
-        <v>7.0397747272087294E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+        <v>19.606955495027162</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="3"/>
+        <v>0.35546041739024525</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>10</v>
       </c>
@@ -3845,19 +3976,27 @@
       <c r="D37">
         <v>0.2</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="4">
         <v>29.1</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="5">
         <f t="shared" si="0"/>
         <v>978.85945800000013</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="1"/>
-        <v>6.8728522336769758E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G37" s="3">
+        <f t="shared" si="2"/>
+        <v>6.8728522336769755</v>
+      </c>
+      <c r="H37" s="1">
+        <f>F37*SQRT(((0.002*0.002)/(C37*C37))+1/(997*997))</f>
+        <v>19.601792678587277</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="3"/>
+        <v>0.34687388702916222</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>9</v>
       </c>
@@ -3867,19 +4006,27 @@
       <c r="D38">
         <v>0.2</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="4">
         <v>29.22</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="5">
         <f t="shared" si="0"/>
         <v>880.97351219999996</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="1"/>
-        <v>6.8446269678302538E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G38" s="3">
+        <f t="shared" si="2"/>
+        <v>6.844626967830254</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" ref="H38:H44" si="4">F38*SQRT(((0.0005*0.0005)/(C38*C38))+1/(997*997))</f>
+        <v>4.9734231689347759</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="3"/>
+        <v>0.34542309849002101</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <v>8</v>
       </c>
@@ -3889,19 +4036,27 @@
       <c r="D39">
         <v>0.2</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="4">
         <v>31.03</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="5">
         <f t="shared" si="0"/>
         <v>783.08756640000001</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="1"/>
-        <v>6.4453754431195616E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G39" s="3">
+        <f t="shared" si="2"/>
+        <v>6.4453754431195618</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="4"/>
+        <v>4.9569212299526084</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="3"/>
+        <v>0.32493533373015265</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>7</v>
       </c>
@@ -3911,19 +4066,27 @@
       <c r="D40">
         <v>0.2</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="4">
         <v>33.44</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="5">
         <f t="shared" si="0"/>
         <v>685.20162060000007</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="1"/>
-        <v>5.9808612440191396E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G40" s="3">
+        <f t="shared" si="2"/>
+        <v>5.98086124401914</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="4"/>
+        <v>4.9423149392537162</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="3"/>
+        <v>0.30117485970165397</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>6</v>
       </c>
@@ -3933,19 +4096,27 @@
       <c r="D41">
         <v>0.2</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="4">
         <v>37.78</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="5">
         <f t="shared" si="0"/>
         <v>587.31567480000001</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="1"/>
-        <v>5.2938062466913712E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G41" s="3">
+        <f t="shared" si="2"/>
+        <v>5.2938062466913713</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="4"/>
+        <v>4.9296211470805709</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="3"/>
+        <v>0.26616973452051146</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>5</v>
       </c>
@@ -3955,19 +4126,27 @@
       <c r="D42">
         <v>0.2</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="4">
         <v>42.69</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="5">
         <f t="shared" si="0"/>
         <v>489.42972900000007</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="1"/>
-        <v>4.6849379245725003E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G42" s="3">
+        <f t="shared" si="2"/>
+        <v>4.6849379245725</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="4"/>
+        <v>4.9188546598649756</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="3"/>
+        <v>0.2352729294627014</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>4</v>
       </c>
@@ -3977,19 +4156,27 @@
       <c r="D43">
         <v>0.2</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="4">
         <v>51.06</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="5">
         <f t="shared" si="0"/>
         <v>391.54378320000001</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="1"/>
-        <v>3.9169604386995694E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G43" s="3">
+        <f t="shared" si="2"/>
+        <v>3.9169604386995696</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="4"/>
+        <v>4.9100281559441923</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="3"/>
+        <v>0.19644806547436106</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>3</v>
       </c>
@@ -3999,19 +4186,27 @@
       <c r="D44">
         <v>0.2</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="4">
         <v>69.81</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="5">
         <f t="shared" si="0"/>
         <v>293.65783740000001</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="1"/>
-        <v>2.8649190660363848E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G44" s="3">
+        <f t="shared" si="2"/>
+        <v>2.8649190660363848</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="4"/>
+        <v>4.9031521122245429</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14348090633309035</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>2</v>
       </c>
@@ -4021,29 +4216,37 @@
       <c r="D45">
         <v>0.2</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="4">
         <v>105.82</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="5">
         <f t="shared" si="0"/>
         <v>195.7718916</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="1"/>
-        <v>1.8900018900018902E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G45" s="3">
+        <f t="shared" si="2"/>
+        <v>1.8900018900018902</v>
+      </c>
+      <c r="H45" s="1">
+        <f>F45*SQRT(((0.0005*0.0005)/(C45*C45))+1/(997*997))</f>
+        <v>4.8982347427636812</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="3"/>
+        <v>9.4567583293518248E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>0</v>
       </c>
@@ -4051,17 +4254,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>20</v>
       </c>
@@ -4069,17 +4272,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>22</v>
       </c>
@@ -4101,15 +4304,21 @@
       <c r="H62" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I62" t="s">
+        <v>37</v>
+      </c>
+      <c r="J62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>11</v>
       </c>
       <c r="C63">
         <v>0.11</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="4">
         <v>100.06</v>
       </c>
       <c r="E63">
@@ -4118,23 +4327,31 @@
       <c r="F63">
         <v>0.2</v>
       </c>
-      <c r="G63">
-        <f t="shared" ref="G63:G72" si="2">C63*$E$18*$G$18</f>
+      <c r="G63" s="2">
+        <f t="shared" ref="G63:G70" si="5">C63*$E$18*$G$18</f>
         <v>1076.7454038000001</v>
       </c>
-      <c r="H63">
-        <f t="shared" ref="H63:H68" si="3">F63/D63</f>
-        <v>1.9988007195682589E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H63" s="4">
+        <f>F63/D63*1000</f>
+        <v>1.9988007195682589</v>
+      </c>
+      <c r="I63" s="4">
+        <f>G63*SQRT(((0.0005*0.0005)/(C63*C63))+1/(997*997))</f>
+        <v>5.0120369452404976</v>
+      </c>
+      <c r="J63" s="1">
+        <f>H63*SQRT(((0.002*0.002)/(F63*F63))+((0.2*0.2)/(D63*D63)))</f>
+        <v>2.038337776683765E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>12</v>
       </c>
       <c r="C64">
         <v>0.12</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="4">
         <v>37.31</v>
       </c>
       <c r="E64">
@@ -4143,111 +4360,164 @@
       <c r="F64">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="G64">
-        <f t="shared" si="2"/>
+      <c r="G64" s="2">
+        <f t="shared" si="5"/>
         <v>1174.6313496</v>
       </c>
-      <c r="H64">
-        <f t="shared" si="3"/>
-        <v>2.278209595282766E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H64" s="4">
+        <f t="shared" ref="H64:H70" si="6">F64/D64*1000</f>
+        <v>2.2782095952827661</v>
+      </c>
+      <c r="I64" s="4">
+        <f t="shared" ref="I64:I70" si="7">G64*SQRT(((0.0005*0.0005)/(C64*C64))+1/(997*997))</f>
+        <v>5.0341057523925556</v>
+      </c>
+      <c r="J64" s="1">
+        <f t="shared" ref="J64:J70" si="8">H64*SQRT(((0.002*0.002)/(F64*F64))+((0.2*0.2)/(D64*D64)))</f>
+        <v>5.4978446935997037E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B65">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C65">
-        <v>0.13</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="2"/>
-        <v>1272.5172954000002</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D65" s="4">
+        <v>36.53</v>
+      </c>
+      <c r="E65">
+        <v>100</v>
+      </c>
+      <c r="F65">
+        <v>0.1</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" si="5"/>
+        <v>1370.4032412000001</v>
+      </c>
+      <c r="H65" s="4">
+        <f t="shared" si="6"/>
+        <v>2.7374760470845878</v>
+      </c>
+      <c r="I65" s="4">
+        <f t="shared" si="7"/>
+        <v>5.083647307433691</v>
+      </c>
+      <c r="J65" s="1">
+        <f t="shared" si="8"/>
+        <v>5.6763867951748655E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C66">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D66">
-        <v>36.53</v>
+        <v>0.15</v>
+      </c>
+      <c r="D66" s="4">
+        <v>39.28</v>
       </c>
       <c r="E66">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F66">
-        <v>0.1</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="2"/>
-        <v>1370.4032412000001</v>
-      </c>
-      <c r="H66">
-        <f t="shared" si="3"/>
-        <v>2.7374760470845879E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+        <v>0.115</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" si="5"/>
+        <v>1468.2891870000001</v>
+      </c>
+      <c r="H66" s="4">
+        <f t="shared" si="6"/>
+        <v>2.9276985743380854</v>
+      </c>
+      <c r="I66" s="4">
+        <f t="shared" si="7"/>
+        <v>5.1110676752189175</v>
+      </c>
+      <c r="J66" s="1">
+        <f t="shared" si="8"/>
+        <v>5.3053772825702394E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C67">
-        <v>0.15</v>
-      </c>
-      <c r="D67">
-        <v>39.28</v>
+        <v>0.16</v>
+      </c>
+      <c r="D67" s="4">
+        <v>41.69</v>
       </c>
       <c r="E67">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F67">
-        <v>0.115</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="2"/>
-        <v>1468.2891870000001</v>
-      </c>
-      <c r="H67">
-        <f t="shared" si="3"/>
-        <v>2.9276985743380856E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="G67" s="2">
+        <f t="shared" si="5"/>
+        <v>1566.1751328</v>
+      </c>
+      <c r="H67" s="4">
+        <f t="shared" si="6"/>
+        <v>3.2381866154953234</v>
+      </c>
+      <c r="I67" s="4">
+        <f t="shared" si="7"/>
+        <v>5.1402173525168671</v>
+      </c>
+      <c r="J67" s="1">
+        <f t="shared" si="8"/>
+        <v>5.0425641995793503E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C68">
-        <v>0.16</v>
-      </c>
-      <c r="D68">
-        <v>41.69</v>
+        <v>0.17</v>
+      </c>
+      <c r="D68" s="4">
+        <v>60.69</v>
       </c>
       <c r="E68">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="F68">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="2"/>
-        <v>1566.1751328</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="3"/>
-        <v>3.2381866154953232E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+      <c r="G68" s="2">
+        <f t="shared" si="5"/>
+        <v>1664.0610786000002</v>
+      </c>
+      <c r="H68" s="4">
+        <f t="shared" si="6"/>
+        <v>3.2954358213873789</v>
+      </c>
+      <c r="I68" s="4">
+        <f t="shared" si="7"/>
+        <v>5.17106709468377</v>
+      </c>
+      <c r="J68" s="1">
+        <f t="shared" si="8"/>
+        <v>3.469765256658567E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B69">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C69">
-        <v>0.17</v>
-      </c>
-      <c r="D69">
-        <v>60.69</v>
+        <v>0.18</v>
+      </c>
+      <c r="D69" s="4">
+        <v>57.19</v>
       </c>
       <c r="E69">
         <v>200</v>
@@ -4255,419 +4525,492 @@
       <c r="F69">
         <v>0.2</v>
       </c>
-      <c r="G69">
-        <f t="shared" si="2"/>
-        <v>1664.0610786000002</v>
-      </c>
-      <c r="H69">
-        <f>F69/D69</f>
-        <v>3.2954358213873789E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G69" s="2">
+        <f t="shared" si="5"/>
+        <v>1761.9470243999999</v>
+      </c>
+      <c r="H69" s="4">
+        <f t="shared" si="6"/>
+        <v>3.4971148802238154</v>
+      </c>
+      <c r="I69" s="4">
+        <f t="shared" si="7"/>
+        <v>5.2035866650306595</v>
+      </c>
+      <c r="J69" s="1">
+        <f t="shared" si="8"/>
+        <v>3.7047936001596019E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C70">
-        <v>0.18</v>
-      </c>
-      <c r="D70">
-        <v>57.19</v>
+        <v>0.2</v>
+      </c>
+      <c r="D70" s="4">
+        <v>49.78</v>
       </c>
       <c r="E70">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="F70">
-        <v>0.2</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="2"/>
-        <v>1761.9470243999999</v>
-      </c>
-      <c r="H70">
-        <f>F70/D70</f>
-        <v>3.4971148802238157E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71">
-        <v>19</v>
-      </c>
-      <c r="C71">
-        <v>0.19</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="2"/>
-        <v>1859.8329702000001</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72">
-        <v>20</v>
-      </c>
-      <c r="C72">
-        <v>0.2</v>
-      </c>
-      <c r="D72">
-        <v>49.78</v>
-      </c>
-      <c r="E72">
-        <v>175</v>
-      </c>
-      <c r="F72">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G72">
-        <f t="shared" si="2"/>
+      <c r="G70" s="2">
+        <f t="shared" si="5"/>
         <v>1957.7189160000003</v>
       </c>
-      <c r="H72">
-        <f>F72/D72</f>
-        <v>3.5154680594616308E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
+      <c r="H70" s="4">
+        <f t="shared" si="6"/>
+        <v>3.515468059461631</v>
+      </c>
+      <c r="I70" s="4">
+        <f t="shared" si="7"/>
+        <v>5.2735101397917097</v>
+      </c>
+      <c r="J70" s="1">
+        <f t="shared" si="8"/>
+        <v>4.2587103192195233E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
         <v>25</v>
       </c>
+      <c r="D76">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D78">
         <v>0.27</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D79">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>26</v>
+      </c>
       <c r="D80">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>26</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D82">
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D83">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D84">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
         <v>22</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C84" t="s">
         <v>34</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D84" t="s">
         <v>15</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E84" t="s">
         <v>16</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F84" t="s">
         <v>33</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G84" t="s">
         <v>35</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H84" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I84" t="s">
+        <v>37</v>
+      </c>
+      <c r="J84" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D85" s="4">
+        <v>47.54</v>
+      </c>
+      <c r="E85">
+        <v>205</v>
+      </c>
+      <c r="F85">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G85" s="2">
+        <f t="shared" ref="G85:G95" si="9">C85*$E$18*$G$18</f>
+        <v>685.20162060000007</v>
+      </c>
+      <c r="H85" s="4">
+        <f>F85/D85*1000</f>
+        <v>4.3121581825830875</v>
+      </c>
+      <c r="I85" s="4">
+        <f>G85*SQRT(((0.0005*0.0005)/(C85*C85))+1/(997*997))</f>
+        <v>4.9423149392537162</v>
+      </c>
+      <c r="J85" s="1">
+        <f>H85*SQRT(((0.002*0.002)/(F85*F85))+((0.2*0.2)/(D85*D85)))</f>
+        <v>4.5814555115788233E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>0.08</v>
+      </c>
+      <c r="D86" s="4">
+        <v>42.59</v>
+      </c>
+      <c r="E86">
+        <v>205</v>
+      </c>
+      <c r="F86">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="G86" s="2">
+        <f t="shared" si="9"/>
+        <v>783.08756640000001</v>
+      </c>
+      <c r="H86" s="4">
+        <f t="shared" ref="H86:H95" si="10">F86/D86*1000</f>
+        <v>4.8133364639586746</v>
+      </c>
+      <c r="I86" s="4">
+        <f t="shared" ref="I86:J91" si="11">G86*SQRT(((0.0005*0.0005)/(C86*C86))+1/(997*997))</f>
+        <v>4.9569212299526084</v>
+      </c>
+      <c r="J86" s="1">
+        <f t="shared" ref="J86:J95" si="12">H86*SQRT(((0.002*0.002)/(F86*F86))+((0.2*0.2)/(D86*D86)))</f>
+        <v>5.2116070974400283E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C87">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D87">
-        <v>47.54</v>
+        <v>0.09</v>
+      </c>
+      <c r="D87" s="4">
+        <v>37.68</v>
       </c>
       <c r="E87">
+        <v>195</v>
+      </c>
+      <c r="F87">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="G87" s="2">
+        <f t="shared" si="9"/>
+        <v>880.97351219999996</v>
+      </c>
+      <c r="H87" s="4">
+        <f t="shared" si="10"/>
+        <v>5.1751592356687901</v>
+      </c>
+      <c r="I87" s="4">
+        <f t="shared" si="11"/>
+        <v>4.9734231689347759</v>
+      </c>
+      <c r="J87" s="1">
+        <f t="shared" si="12"/>
+        <v>5.9765198817982867E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>0.1</v>
+      </c>
+      <c r="D88" s="4">
+        <v>34.4</v>
+      </c>
+      <c r="E88">
+        <v>200</v>
+      </c>
+      <c r="F88">
+        <v>0.2</v>
+      </c>
+      <c r="G88" s="2">
+        <f t="shared" si="9"/>
+        <v>978.85945800000013</v>
+      </c>
+      <c r="H88" s="4">
+        <f t="shared" si="10"/>
+        <v>5.8139534883720936</v>
+      </c>
+      <c r="I88" s="4">
+        <f t="shared" si="11"/>
+        <v>4.991801956287679</v>
+      </c>
+      <c r="J88" s="1">
+        <f t="shared" si="12"/>
+        <v>6.7251650164661378E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>11</v>
+      </c>
+      <c r="C89">
+        <v>0.11</v>
+      </c>
+      <c r="D89" s="4">
+        <v>34.409999999999997</v>
+      </c>
+      <c r="E89">
         <v>205</v>
       </c>
-      <c r="F87">
+      <c r="F89">
         <v>0.20499999999999999</v>
       </c>
-      <c r="G87">
-        <f t="shared" ref="G87:G97" si="4">C87*$E$18*$G$18</f>
-        <v>685.20162060000007</v>
-      </c>
-      <c r="H87">
-        <f>F87/D87</f>
-        <v>4.3121581825830875E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B88">
-        <v>8</v>
-      </c>
-      <c r="C88">
-        <v>0.08</v>
-      </c>
-      <c r="D88">
-        <v>42.59</v>
-      </c>
-      <c r="E88">
+      <c r="G89" s="2">
+        <f t="shared" si="9"/>
+        <v>1076.7454038000001</v>
+      </c>
+      <c r="H89" s="4">
+        <f t="shared" si="10"/>
+        <v>5.9575704736995068</v>
+      </c>
+      <c r="I89" s="4">
+        <f t="shared" si="11"/>
+        <v>5.0120369452404976</v>
+      </c>
+      <c r="J89" s="1">
+        <f t="shared" si="12"/>
+        <v>6.765551199652696E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <v>0.12</v>
+      </c>
+      <c r="D90" s="4">
+        <v>31.94</v>
+      </c>
+      <c r="E90">
         <v>205</v>
       </c>
-      <c r="F88">
+      <c r="F90">
         <v>0.20499999999999999</v>
       </c>
-      <c r="G88">
-        <f t="shared" si="4"/>
-        <v>783.08756640000001</v>
-      </c>
-      <c r="H88">
-        <f t="shared" ref="H88:H97" si="5">F88/D88</f>
-        <v>4.813336463958675E-3</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B89">
-        <v>9</v>
-      </c>
-      <c r="C89">
-        <v>0.09</v>
-      </c>
-      <c r="D89">
-        <v>37.68</v>
-      </c>
-      <c r="E89">
+      <c r="G90" s="2">
+        <f t="shared" si="9"/>
+        <v>1174.6313496</v>
+      </c>
+      <c r="H90" s="4">
+        <f t="shared" si="10"/>
+        <v>6.4182842830306823</v>
+      </c>
+      <c r="I90" s="4">
+        <f t="shared" si="11"/>
+        <v>5.0341057523925556</v>
+      </c>
+      <c r="J90" s="1">
+        <f t="shared" si="12"/>
+        <v>7.4405283994178978E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>13</v>
+      </c>
+      <c r="C91">
+        <v>0.13</v>
+      </c>
+      <c r="D91" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="E91">
+        <v>230</v>
+      </c>
+      <c r="F91">
+        <v>0.23</v>
+      </c>
+      <c r="G91" s="2">
+        <f t="shared" si="9"/>
+        <v>1272.5172954000002</v>
+      </c>
+      <c r="H91" s="4">
+        <f t="shared" si="10"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="I91" s="4">
+        <f>G91*SQRT(((0.002*0.002)/(C91*C91))+1/(997*997))</f>
+        <v>19.618751116515192</v>
+      </c>
+      <c r="J91" s="1">
+        <f t="shared" si="12"/>
+        <v>6.9672488414763076E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>14</v>
+      </c>
+      <c r="C92">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D92" s="4">
+        <v>27.5</v>
+      </c>
+      <c r="E92">
+        <v>200</v>
+      </c>
+      <c r="F92">
+        <v>0.2</v>
+      </c>
+      <c r="G92" s="2">
+        <f t="shared" si="9"/>
+        <v>1370.4032412000001</v>
+      </c>
+      <c r="H92" s="4">
+        <f t="shared" si="10"/>
+        <v>7.2727272727272725</v>
+      </c>
+      <c r="I92" s="4">
+        <f t="shared" ref="I92:J95" si="13">G92*SQRT(((0.002*0.002)/(C92*C92))+1/(997*997))</f>
+        <v>19.625383038042798</v>
+      </c>
+      <c r="J92" s="1">
+        <f t="shared" si="12"/>
+        <v>8.9927077743705397E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>15</v>
+      </c>
+      <c r="C93">
+        <v>0.15</v>
+      </c>
+      <c r="D93" s="4">
+        <v>26.4</v>
+      </c>
+      <c r="E93">
+        <v>200</v>
+      </c>
+      <c r="F93">
+        <v>0.2</v>
+      </c>
+      <c r="G93" s="2">
+        <f t="shared" si="9"/>
+        <v>1468.2891870000001</v>
+      </c>
+      <c r="H93" s="4">
+        <f t="shared" si="10"/>
+        <v>7.575757575757577</v>
+      </c>
+      <c r="I93" s="4">
+        <f t="shared" si="13"/>
+        <v>19.632503717666474</v>
+      </c>
+      <c r="J93" s="1">
+        <f t="shared" si="12"/>
+        <v>9.5042431333721103E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>16</v>
+      </c>
+      <c r="C94">
+        <v>0.16</v>
+      </c>
+      <c r="D94" s="4">
+        <v>24.88</v>
+      </c>
+      <c r="E94">
         <v>195</v>
       </c>
-      <c r="F89">
+      <c r="F94">
         <v>0.19500000000000001</v>
       </c>
-      <c r="G89">
-        <f t="shared" si="4"/>
-        <v>880.97351219999996</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="5"/>
-        <v>5.1751592356687904E-3</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B90">
-        <v>10</v>
-      </c>
-      <c r="C90">
-        <v>0.1</v>
-      </c>
-      <c r="D90">
-        <v>34.4</v>
-      </c>
-      <c r="E90">
-        <v>200</v>
-      </c>
-      <c r="F90">
-        <v>0.2</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="4"/>
-        <v>978.85945800000013</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="5"/>
-        <v>5.8139534883720938E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B91">
-        <v>11</v>
-      </c>
-      <c r="C91">
-        <v>0.11</v>
-      </c>
-      <c r="D91">
-        <v>34.409999999999997</v>
-      </c>
-      <c r="E91">
-        <v>205</v>
-      </c>
-      <c r="F91">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="4"/>
-        <v>1076.7454038000001</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="5"/>
-        <v>5.9575704736995064E-3</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B92">
-        <v>12</v>
-      </c>
-      <c r="C92">
-        <v>0.12</v>
-      </c>
-      <c r="D92">
-        <v>31.94</v>
-      </c>
-      <c r="E92">
-        <v>205</v>
-      </c>
-      <c r="F92">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="4"/>
-        <v>1174.6313496</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="5"/>
-        <v>6.418284283030682E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B93">
-        <v>13</v>
-      </c>
-      <c r="C93">
-        <v>0.13</v>
-      </c>
-      <c r="D93">
-        <v>34.5</v>
-      </c>
-      <c r="E93">
-        <v>230</v>
-      </c>
-      <c r="F93">
-        <v>0.23</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="4"/>
-        <v>1272.5172954000002</v>
-      </c>
-      <c r="H93">
-        <f t="shared" si="5"/>
-        <v>6.6666666666666671E-3</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B94">
-        <v>14</v>
-      </c>
-      <c r="C94">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D94">
-        <v>27.5</v>
-      </c>
-      <c r="E94">
-        <v>200</v>
-      </c>
-      <c r="F94">
-        <v>0.2</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="4"/>
-        <v>1370.4032412000001</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="5"/>
-        <v>7.2727272727272727E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G94" s="2">
+        <f t="shared" si="9"/>
+        <v>1566.1751328</v>
+      </c>
+      <c r="H94" s="4">
+        <f t="shared" si="10"/>
+        <v>7.837620578778135</v>
+      </c>
+      <c r="I94" s="4">
+        <f t="shared" si="13"/>
+        <v>19.640112623776769</v>
+      </c>
+      <c r="J94" s="1">
+        <f t="shared" si="12"/>
+        <v>0.10213379076398868</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B95">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C95">
-        <v>0.15</v>
-      </c>
-      <c r="D95">
-        <v>26.4</v>
+        <v>0.17</v>
+      </c>
+      <c r="D95" s="4">
+        <v>24.53</v>
       </c>
       <c r="E95">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F95">
-        <v>0.2</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="4"/>
-        <v>1468.2891870000001</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="5"/>
-        <v>7.5757575757575768E-3</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B96">
-        <v>16</v>
-      </c>
-      <c r="C96">
-        <v>0.16</v>
-      </c>
-      <c r="D96">
-        <v>24.88</v>
-      </c>
-      <c r="E96">
-        <v>195</v>
-      </c>
-      <c r="F96">
         <v>0.19500000000000001</v>
       </c>
-      <c r="G96">
-        <f t="shared" si="4"/>
-        <v>1566.1751328</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="5"/>
-        <v>7.8376205787781348E-3</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B97">
-        <v>17</v>
-      </c>
-      <c r="C97">
-        <v>0.17</v>
-      </c>
-      <c r="D97">
-        <v>24.53</v>
-      </c>
-      <c r="E97">
-        <v>195</v>
-      </c>
-      <c r="F97">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="4"/>
+      <c r="G95" s="2">
+        <f t="shared" si="9"/>
         <v>1664.0610786000002</v>
       </c>
-      <c r="H97">
-        <f t="shared" si="5"/>
-        <v>7.9494496534855286E-3</v>
+      <c r="H95" s="4">
+        <f t="shared" si="10"/>
+        <v>7.9494496534855283</v>
+      </c>
+      <c r="I95" s="4">
+        <f t="shared" si="13"/>
+        <v>19.648209189166359</v>
+      </c>
+      <c r="J95" s="1">
+        <f t="shared" si="12"/>
+        <v>0.10415597968888007</v>
       </c>
     </row>
   </sheetData>

--- a/01 - Studium proudění viskózní kapaliny trubicemi kruhového průřezu/Měření.xlsx
+++ b/01 - Studium proudění viskózní kapaliny trubicemi kruhového průřezu/Měření.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\Praktikum-I\01 - Studium proudění viskózní kapaliny trubicemi kruhového průřezu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13924142-F1EA-457C-AD82-E10CF4729994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBC787F-11DB-4231-8B2F-F98D30F3CB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B1A6E543-93D1-4E69-87E0-7B5E6B6C9A77}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>vnitřní průměr</t>
   </si>
@@ -154,14 +154,31 @@
   <si>
     <t>chyba y</t>
   </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>k lam</t>
+  </si>
+  <si>
+    <t>k turb</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -200,15 +217,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -3015,16 +3034,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3051,16 +3070,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3087,16 +3106,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3424,10 +3443,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:J95"/>
+  <dimension ref="B2:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P85" sqref="P85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3440,7 +3459,9 @@
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" customWidth="1"/>
     <col min="9" max="9" width="16.21875" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="10" max="11" width="19.21875" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
@@ -3518,7 +3539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>29</v>
       </c>
@@ -3535,22 +3556,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D19">
         <v>22.1</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D20">
         <v>22.2</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -3575,8 +3596,20 @@
       <c r="I23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>23</v>
       </c>
@@ -3605,8 +3638,24 @@
         <f>G24*SQRT(((0.01*0.01)/(D24*D24))+((0.2*0.2)/(E24*E24)))</f>
         <v>0.49153655105487631</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="4">
+        <f>G24*997/950*3.14*1.4</f>
+        <v>44.53172119487909</v>
+      </c>
+      <c r="K24" s="6">
+        <f>F24*2*POWER(0.0013,5)*PI()*PI()/(997*(G24*G24/POWER(10,12))*0.25)</f>
+        <v>7.1052444471937848E-3</v>
+      </c>
+      <c r="L24" s="1">
+        <f>16/J24</f>
+        <v>0.35929444384107739</v>
+      </c>
+      <c r="M24" s="6">
+        <f>0.133/J24^(1/4)</f>
+        <v>5.1485421269843047E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>22</v>
       </c>
@@ -3635,8 +3684,24 @@
         <f t="shared" ref="I25:I45" si="3">G25*SQRT(((0.01*0.01)/(D25*D25))+((0.2*0.2)/(E25*E25)))</f>
         <v>0.47309740894816737</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="4">
+        <f t="shared" ref="J25:J45" si="4">G25*997/950*3.14*1.4</f>
+        <v>42.91615177478581</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" ref="K25:K45" si="5">F25*2*POWER(0.0013,5)*PI()*PI()/(997*(G25*G25/POWER(10,12))*0.25)</f>
+        <v>7.3176441506124902E-3</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" ref="L25:L45" si="6">16/J25</f>
+        <v>0.37282000688142675</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" ref="M25:M45" si="7">0.133/J25^(1/4)</f>
+        <v>5.1963266988385062E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>21</v>
       </c>
@@ -3665,8 +3730,24 @@
         <f t="shared" si="3"/>
         <v>0.47105968517764851</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="4">
+        <f t="shared" si="4"/>
+        <v>42.737251651593084</v>
+      </c>
+      <c r="K26" s="6">
+        <f t="shared" si="5"/>
+        <v>7.0436256308002744E-3</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="6"/>
+        <v>0.37438064877069793</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" si="7"/>
+        <v>5.201756199515236E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>20</v>
       </c>
@@ -3695,8 +3776,24 @@
         <f t="shared" si="3"/>
         <v>0.4539083226052173</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="4">
+        <f t="shared" si="4"/>
+        <v>41.22865340294436</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="5"/>
+        <v>7.2081173054919807E-3</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="6"/>
+        <v>0.38807961646541078</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="7"/>
+        <v>5.2487012436335918E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>19</v>
       </c>
@@ -3725,8 +3822,24 @@
         <f t="shared" si="3"/>
         <v>0.43469546186539387</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="4">
+        <f t="shared" si="4"/>
+        <v>39.532873314391374</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="5"/>
+        <v>7.447782581957281E-3</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="6"/>
+        <v>0.40472646328430245</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" si="7"/>
+        <v>5.3041041818972345E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>18</v>
       </c>
@@ -3755,8 +3868,24 @@
         <f t="shared" si="3"/>
         <v>0.42587704743799043</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="4">
+        <f t="shared" si="4"/>
+        <v>38.752510002431535</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" si="5"/>
+        <v>7.3428216819858214E-3</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="6"/>
+        <v>0.41287648203938471</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="7"/>
+        <v>5.3306072018564299E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>17</v>
       </c>
@@ -3785,8 +3914,24 @@
         <f t="shared" si="3"/>
         <v>0.41184284604756671</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="4">
+        <f t="shared" si="4"/>
+        <v>37.50801882755669</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" si="5"/>
+        <v>7.4027114490524742E-3</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="6"/>
+        <v>0.42657544973409772</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="7"/>
+        <v>5.3742839624330442E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>16</v>
       </c>
@@ -3815,8 +3960,24 @@
         <f t="shared" si="3"/>
         <v>0.40195678680851121</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="4">
+        <f t="shared" si="4"/>
+        <v>36.629506278598441</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="5"/>
+        <v>7.3054673374580246E-3</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="6"/>
+        <v>0.43680632434154149</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="7"/>
+        <v>5.4062219903270967E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>15</v>
       </c>
@@ -3845,8 +4006,24 @@
         <f t="shared" si="3"/>
         <v>0.37569197534902382</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="4">
+        <f t="shared" si="4"/>
+        <v>34.288266932660527</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="5"/>
+        <v>7.8161041960895048E-3</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="6"/>
+        <v>0.46663192489205557</v>
+      </c>
+      <c r="M32" s="6">
+        <f t="shared" si="7"/>
+        <v>5.4962345433870359E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>14</v>
       </c>
@@ -3875,8 +4052,24 @@
         <f t="shared" si="3"/>
         <v>0.37483816771246586</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="4">
+        <f t="shared" si="4"/>
+        <v>34.211986027359835</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="5"/>
+        <v>7.3275976433582243E-3</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="6"/>
+        <v>0.46767235281823633</v>
+      </c>
+      <c r="M33" s="6">
+        <f t="shared" si="7"/>
+        <v>5.4992956609998998E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>13</v>
       </c>
@@ -3905,8 +4098,24 @@
         <f t="shared" si="3"/>
         <v>0.35919861658448315</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="4">
+        <f t="shared" si="4"/>
+        <v>32.812847196226691</v>
+      </c>
+      <c r="K34" s="6">
+        <f t="shared" si="5"/>
+        <v>7.3968305658119885E-3</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="6"/>
+        <v>0.48761388807003364</v>
+      </c>
+      <c r="M34" s="6">
+        <f t="shared" si="7"/>
+        <v>5.5570033928350221E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>12</v>
       </c>
@@ -3935,8 +4144,24 @@
         <f t="shared" si="3"/>
         <v>0.36076876591150381</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="4">
+        <f t="shared" si="4"/>
+        <v>32.953473684210529</v>
+      </c>
+      <c r="K35" s="6">
+        <f t="shared" si="5"/>
+        <v>6.769693315203531E-3</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="6"/>
+        <v>0.48553303221767208</v>
+      </c>
+      <c r="M35" s="6">
+        <f t="shared" si="7"/>
+        <v>5.5510653575774276E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>11</v>
       </c>
@@ -3965,8 +4190,24 @@
         <f t="shared" si="3"/>
         <v>0.35546041739024525</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="4">
+        <f t="shared" si="4"/>
+        <v>32.477904370218049</v>
+      </c>
+      <c r="K36" s="6">
+        <f t="shared" si="5"/>
+        <v>6.3886167871930492E-3</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="6"/>
+        <v>0.49264262304657375</v>
+      </c>
+      <c r="M36" s="6">
+        <f t="shared" si="7"/>
+        <v>5.5712755821324941E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>10</v>
       </c>
@@ -3995,8 +4236,24 @@
         <f t="shared" si="3"/>
         <v>0.34687388702916222</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="4">
+        <f t="shared" si="4"/>
+        <v>31.707809730511844</v>
+      </c>
+      <c r="K37" s="6">
+        <f t="shared" si="5"/>
+        <v>6.0933715946508331E-3</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="6"/>
+        <v>0.50460754419765219</v>
+      </c>
+      <c r="M37" s="6">
+        <f t="shared" si="7"/>
+        <v>5.6047994854615535E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>9</v>
       </c>
@@ -4018,15 +4275,31 @@
         <v>6.844626967830254</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" ref="H38:H44" si="4">F38*SQRT(((0.0005*0.0005)/(C38*C38))+1/(997*997))</f>
+        <f t="shared" ref="H38:H44" si="8">F38*SQRT(((0.0005*0.0005)/(C38*C38))+1/(997*997))</f>
         <v>4.9734231689347759</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="3"/>
         <v>0.34542309849002101</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="4">
+        <f t="shared" si="4"/>
+        <v>31.577592852768472</v>
+      </c>
+      <c r="K38" s="6">
+        <f t="shared" si="5"/>
+        <v>5.529356841146001E-3</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="6"/>
+        <v>0.50668840005001359</v>
+      </c>
+      <c r="M38" s="6">
+        <f t="shared" si="7"/>
+        <v>5.6105687154201188E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <v>8</v>
       </c>
@@ -4048,15 +4321,31 @@
         <v>6.4453754431195618</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.9569212299526084</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="3"/>
         <v>0.32493533373015265</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="4">
+        <f t="shared" si="4"/>
+        <v>29.735651406957608</v>
+      </c>
+      <c r="K39" s="6">
+        <f t="shared" si="5"/>
+        <v>5.5427491481299792E-3</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="6"/>
+        <v>0.53807464248979886</v>
+      </c>
+      <c r="M39" s="6">
+        <f t="shared" si="7"/>
+        <v>5.6955055153584754E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>7</v>
       </c>
@@ -4078,15 +4367,31 @@
         <v>5.98086124401914</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.9423149392537162</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="3"/>
         <v>0.30117485970165397</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="4">
+        <f t="shared" si="4"/>
+        <v>27.592621505917908</v>
+      </c>
+      <c r="K40" s="6">
+        <f t="shared" si="5"/>
+        <v>5.6325137847886737E-3</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="6"/>
+        <v>0.57986516419139122</v>
+      </c>
+      <c r="M40" s="6">
+        <f t="shared" si="7"/>
+        <v>5.8030110835038007E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>6</v>
       </c>
@@ -4108,15 +4413,31 @@
         <v>5.2938062466913713</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.9296211470805709</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="3"/>
         <v>0.26616973452051146</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="4">
+        <f t="shared" si="4"/>
+        <v>24.42290267755148</v>
+      </c>
+      <c r="K41" s="6">
+        <f t="shared" si="5"/>
+        <v>6.1623568418878519E-3</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="6"/>
+        <v>0.65512278418513037</v>
+      </c>
+      <c r="M41" s="6">
+        <f t="shared" si="7"/>
+        <v>5.9827701927406877E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>5</v>
       </c>
@@ -4138,15 +4459,31 @@
         <v>4.6849379245725</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.9188546598649756</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="3"/>
         <v>0.2352729294627014</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="4">
+        <f t="shared" si="4"/>
+        <v>21.613897005338369</v>
+      </c>
+      <c r="K42" s="6">
+        <f t="shared" si="5"/>
+        <v>6.5568311455971471E-3</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="6"/>
+        <v>0.74026446947758628</v>
+      </c>
+      <c r="M42" s="6">
+        <f t="shared" si="7"/>
+        <v>6.1683409582369411E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>4</v>
       </c>
@@ -4168,15 +4505,31 @@
         <v>3.9169604386995696</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.9100281559441923</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="3"/>
         <v>0.19644806547436106</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="4">
+        <f t="shared" si="4"/>
+        <v>18.070843383429196</v>
+      </c>
+      <c r="K43" s="6">
+        <f t="shared" si="5"/>
+        <v>7.504008166168947E-3</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="6"/>
+        <v>0.88540416517979781</v>
+      </c>
+      <c r="M43" s="6">
+        <f t="shared" si="7"/>
+        <v>6.4507028319614926E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>3</v>
       </c>
@@ -4198,15 +4551,31 @@
         <v>2.8649190660363848</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.9031521122245429</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="3"/>
         <v>0.14348090633309035</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="4">
+        <f t="shared" si="4"/>
+        <v>13.217264907003219</v>
+      </c>
+      <c r="K44" s="6">
+        <f t="shared" si="5"/>
+        <v>1.0520302228393355E-2</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2105378921112746</v>
+      </c>
+      <c r="M44" s="6">
+        <f t="shared" si="7"/>
+        <v>6.9753538291135411E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>2</v>
       </c>
@@ -4235,18 +4604,34 @@
         <f t="shared" si="3"/>
         <v>9.4567583293518248E-2</v>
       </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J45" s="4">
+        <f t="shared" si="4"/>
+        <v>8.7194978563399612</v>
+      </c>
+      <c r="K45" s="6">
+        <f t="shared" si="5"/>
+        <v>1.6115255512496197E-2</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" si="6"/>
+        <v>1.8349680524740739</v>
+      </c>
+      <c r="M45" s="6">
+        <f t="shared" si="7"/>
+        <v>7.7397827790263704E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>0</v>
       </c>
@@ -4254,17 +4639,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>20</v>
       </c>
@@ -4272,17 +4657,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>22</v>
       </c>
@@ -4310,8 +4695,23 @@
       <c r="J62" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K62" t="s">
+        <v>41</v>
+      </c>
+      <c r="L62" t="s">
+        <v>39</v>
+      </c>
+      <c r="M62" t="s">
+        <v>40</v>
+      </c>
+      <c r="N62" t="s">
+        <v>42</v>
+      </c>
+      <c r="O62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>11</v>
       </c>
@@ -4328,7 +4728,7 @@
         <v>0.2</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" ref="G63:G70" si="5">C63*$E$18*$G$18</f>
+        <f t="shared" ref="G63:G70" si="9">C63*$E$18*$G$18</f>
         <v>1076.7454038000001</v>
       </c>
       <c r="H63" s="4">
@@ -4343,8 +4743,28 @@
         <f>H63*SQRT(((0.002*0.002)/(F63*F63))+((0.2*0.2)/(D63*D63)))</f>
         <v>2.038337776683765E-2</v>
       </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K63" s="7">
+        <f>H63/3.14*0.0011*0.0011</f>
+        <v>7.7023849384636732E-7</v>
+      </c>
+      <c r="L63" s="3">
+        <f>H63*997/950*3.14*1.1</f>
+        <v>7.2454169603501075</v>
+      </c>
+      <c r="M63" s="6">
+        <f>G63*2*POWER(0.0013,5)*PI()*PI()/(997*(H63*H63/POWER(10,12))*0.25)</f>
+        <v>7.9247463038887203E-2</v>
+      </c>
+      <c r="N63">
+        <f>16/L63</f>
+        <v>2.2082925092591026</v>
+      </c>
+      <c r="O63">
+        <f>0.133/L63^(1/4)</f>
+        <v>8.1065449492467953E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>12</v>
       </c>
@@ -4361,23 +4781,43 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1174.6313496</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" ref="H64:H70" si="6">F64/D64*1000</f>
+        <f t="shared" ref="H64:H70" si="10">F64/D64*1000</f>
         <v>2.2782095952827661</v>
       </c>
       <c r="I64" s="4">
-        <f t="shared" ref="I64:I70" si="7">G64*SQRT(((0.0005*0.0005)/(C64*C64))+1/(997*997))</f>
+        <f t="shared" ref="I64:I70" si="11">G64*SQRT(((0.0005*0.0005)/(C64*C64))+1/(997*997))</f>
         <v>5.0341057523925556</v>
       </c>
       <c r="J64" s="1">
-        <f t="shared" ref="J64:J70" si="8">H64*SQRT(((0.002*0.002)/(F64*F64))+((0.2*0.2)/(D64*D64)))</f>
+        <f t="shared" ref="J64:J70" si="12">H64*SQRT(((0.002*0.002)/(F64*F64))+((0.2*0.2)/(D64*D64)))</f>
         <v>5.4978446935997037E-2</v>
       </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K64" s="1">
+        <f t="shared" ref="K64:K70" si="13">H64/3.14*0.0011*0.0011</f>
+        <v>8.7790879308667118E-7</v>
+      </c>
+      <c r="L64" s="3">
+        <f t="shared" ref="L64:L70" si="14">H64*997/950*3.14*1.1</f>
+        <v>8.2582411939793214</v>
+      </c>
+      <c r="M64" s="6">
+        <f t="shared" ref="M64:M70" si="15">G64*2*POWER(0.0013,5)*PI()*PI()/(997*(H64*H64/POWER(10,12))*0.25)</f>
+        <v>6.6546553779337589E-2</v>
+      </c>
+      <c r="N64">
+        <f>16/L64</f>
+        <v>1.9374585488814271</v>
+      </c>
+      <c r="O64">
+        <f t="shared" ref="O64:O70" si="16">0.133/L64^(1/4)</f>
+        <v>7.8456648170411744E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>14</v>
       </c>
@@ -4394,23 +4834,43 @@
         <v>0.1</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1370.4032412000001</v>
       </c>
       <c r="H65" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.7374760470845878</v>
       </c>
       <c r="I65" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.083647307433691</v>
       </c>
       <c r="J65" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.6763867951748655E-2</v>
       </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K65" s="1">
+        <f t="shared" si="13"/>
+        <v>1.0548872665517043E-6</v>
+      </c>
+      <c r="L65" s="3">
+        <f t="shared" si="14"/>
+        <v>9.9230279366634502</v>
+      </c>
+      <c r="M65" s="6">
+        <f t="shared" si="15"/>
+        <v>5.3772355001572542E-2</v>
+      </c>
+      <c r="N65">
+        <f>16/L65</f>
+        <v>1.6124110606283237</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="16"/>
+        <v>7.4936013844184829E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>15</v>
       </c>
@@ -4427,23 +4887,43 @@
         <v>0.115</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1468.2891870000001</v>
       </c>
       <c r="H66" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.9276985743380854</v>
       </c>
       <c r="I66" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.1110676752189175</v>
       </c>
       <c r="J66" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.3053772825702394E-2</v>
       </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K66" s="1">
+        <f t="shared" si="13"/>
+        <v>1.1281895780092622E-6</v>
+      </c>
+      <c r="L66" s="3">
+        <f t="shared" si="14"/>
+        <v>10.612562171722587</v>
+      </c>
+      <c r="M66" s="6">
+        <f t="shared" si="15"/>
+        <v>5.0369798514643183E-2</v>
+      </c>
+      <c r="N66">
+        <f>16/L66</f>
+        <v>1.5076472336371667</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="16"/>
+        <v>7.3687967727878695E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>16</v>
       </c>
@@ -4460,23 +4940,43 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1566.1751328</v>
       </c>
       <c r="H67" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.2381866154953234</v>
       </c>
       <c r="I67" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.1402173525168671</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.0425641995793503E-2</v>
       </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K67" s="1">
+        <f t="shared" si="13"/>
+        <v>1.2478362435507459E-6</v>
+      </c>
+      <c r="L67" s="3">
+        <f t="shared" si="14"/>
+        <v>11.738044716011668</v>
+      </c>
+      <c r="M67" s="6">
+        <f t="shared" si="15"/>
+        <v>4.3918541890834391E-2</v>
+      </c>
+      <c r="N67">
+        <f>16/L67</f>
+        <v>1.3630890311888717</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="16"/>
+        <v>7.1854289773325836E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>17</v>
       </c>
@@ -4493,23 +4993,43 @@
         <v>0.2</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1664.0610786000002</v>
       </c>
       <c r="H68" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.2954358213873789</v>
       </c>
       <c r="I68" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.17106709468377</v>
       </c>
       <c r="J68" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.469765256658567E-2</v>
       </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K68" s="1">
+        <f t="shared" si="13"/>
+        <v>1.2698972432734806E-6</v>
+      </c>
+      <c r="L68" s="3">
+        <f t="shared" si="14"/>
+        <v>11.945566337990307</v>
+      </c>
+      <c r="M68" s="6">
+        <f t="shared" si="15"/>
+        <v>4.5056233319273158E-2</v>
+      </c>
+      <c r="N68">
+        <f>16/L68</f>
+        <v>1.3394090784222961</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="16"/>
+        <v>7.1540167864720519E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>18</v>
       </c>
@@ -4526,23 +5046,43 @@
         <v>0.2</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1761.9470243999999</v>
       </c>
       <c r="H69" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.4971148802238154</v>
       </c>
       <c r="I69" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.2035866650306595</v>
       </c>
       <c r="J69" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3.7047936001596019E-2</v>
       </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K69" s="1">
+        <f t="shared" si="13"/>
+        <v>1.3476143328251009E-6</v>
+      </c>
+      <c r="L69" s="3">
+        <f t="shared" si="14"/>
+        <v>12.676629149372822</v>
+      </c>
+      <c r="M69" s="6">
+        <f t="shared" si="15"/>
+        <v>4.2362773324423959E-2</v>
+      </c>
+      <c r="N69">
+        <f>16/L69</f>
+        <v>1.2621651869331212</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="16"/>
+        <v>7.0485647659383255E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>20</v>
       </c>
@@ -4559,33 +5099,53 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1957.7189160000003</v>
       </c>
       <c r="H70" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.515468059461631</v>
       </c>
       <c r="I70" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.2735101397917097</v>
       </c>
       <c r="J70" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4.2587103192195233E-2</v>
       </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K70" s="1">
+        <f t="shared" si="13"/>
+        <v>1.3546867362893548E-6</v>
+      </c>
+      <c r="L70" s="3">
+        <f t="shared" si="14"/>
+        <v>12.743157260366667</v>
+      </c>
+      <c r="M70" s="6">
+        <f t="shared" si="15"/>
+        <v>4.6579557651619634E-2</v>
+      </c>
+      <c r="N70">
+        <f>16/L70</f>
+        <v>1.25557581006731</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="16"/>
+        <v>7.0393471022303103E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>25</v>
       </c>
@@ -4593,17 +5153,17 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D77">
         <v>0.25</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D78">
         <v>0.27</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>26</v>
       </c>
@@ -4611,17 +5171,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D81">
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
       <c r="D82">
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>22</v>
       </c>
@@ -4649,8 +5209,20 @@
       <c r="J84" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L84" t="s">
+        <v>39</v>
+      </c>
+      <c r="M84" t="s">
+        <v>40</v>
+      </c>
+      <c r="N84" t="s">
+        <v>42</v>
+      </c>
+      <c r="O84" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>7</v>
       </c>
@@ -4667,7 +5239,7 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" ref="G85:G95" si="9">C85*$E$18*$G$18</f>
+        <f t="shared" ref="G85:G95" si="17">C85*$E$18*$G$18</f>
         <v>685.20162060000007</v>
       </c>
       <c r="H85" s="4">
@@ -4682,8 +5254,25 @@
         <f>H85*SQRT(((0.002*0.002)/(F85*F85))+((0.2*0.2)/(D85*D85)))</f>
         <v>4.5814555115788233E-2</v>
       </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K85" s="1"/>
+      <c r="L85" s="3">
+        <f>H85*997/950*3.14*1.3</f>
+        <v>18.473076854947635</v>
+      </c>
+      <c r="M85" s="6">
+        <f>G85*2*POWER(0.0013,5)*PI()*PI()/(997*(H85*H85/POWER(10,12))*0.25)</f>
+        <v>1.0835285267085245E-2</v>
+      </c>
+      <c r="N85">
+        <f>16/L85</f>
+        <v>0.86612534152450771</v>
+      </c>
+      <c r="O85">
+        <f>0.133/L85^(1/4)</f>
+        <v>6.4152979542872177E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>8</v>
       </c>
@@ -4700,23 +5289,40 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>783.08756640000001</v>
       </c>
       <c r="H86" s="4">
-        <f t="shared" ref="H86:H95" si="10">F86/D86*1000</f>
+        <f t="shared" ref="H86:H95" si="18">F86/D86*1000</f>
         <v>4.8133364639586746</v>
       </c>
       <c r="I86" s="4">
-        <f t="shared" ref="I86:J91" si="11">G86*SQRT(((0.0005*0.0005)/(C86*C86))+1/(997*997))</f>
+        <f t="shared" ref="I86:I90" si="19">G86*SQRT(((0.0005*0.0005)/(C86*C86))+1/(997*997))</f>
         <v>4.9569212299526084</v>
       </c>
       <c r="J86" s="1">
-        <f t="shared" ref="J86:J95" si="12">H86*SQRT(((0.002*0.002)/(F86*F86))+((0.2*0.2)/(D86*D86)))</f>
+        <f t="shared" ref="J86:J95" si="20">H86*SQRT(((0.002*0.002)/(F86*F86))+((0.2*0.2)/(D86*D86)))</f>
         <v>5.2116070974400283E-2</v>
       </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K86" s="1"/>
+      <c r="L86" s="3">
+        <f t="shared" ref="L86:M95" si="21">H86*997/950*3.14*1.3</f>
+        <v>20.62010034478071</v>
+      </c>
+      <c r="M86" s="6">
+        <f t="shared" ref="M86:M95" si="22">G86*2*POWER(0.0013,5)*PI()*PI()/(997*(H86*H86/POWER(10,12))*0.25)</f>
+        <v>9.9386917723605916E-3</v>
+      </c>
+      <c r="N86">
+        <f>16/L86</f>
+        <v>0.77594190777300787</v>
+      </c>
+      <c r="O86">
+        <f t="shared" ref="O86:O95" si="23">0.133/L86^(1/4)</f>
+        <v>6.2413558909161573E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>9</v>
       </c>
@@ -4733,23 +5339,40 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>880.97351219999996</v>
       </c>
       <c r="H87" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>5.1751592356687901</v>
       </c>
       <c r="I87" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>4.9734231689347759</v>
       </c>
       <c r="J87" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>5.9765198817982867E-2</v>
       </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K87" s="1"/>
+      <c r="L87" s="3">
+        <f t="shared" si="21"/>
+        <v>22.17013157894737</v>
+      </c>
+      <c r="M87" s="6">
+        <f t="shared" si="22"/>
+        <v>9.6722330458515714E-3</v>
+      </c>
+      <c r="N87">
+        <f>16/L87</f>
+        <v>0.72169170232591262</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="23"/>
+        <v>6.1292815792951469E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>10</v>
       </c>
@@ -4766,23 +5389,40 @@
         <v>0.2</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>978.85945800000013</v>
       </c>
       <c r="H88" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>5.8139534883720936</v>
       </c>
       <c r="I88" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>4.991801956287679</v>
       </c>
       <c r="J88" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>6.7251650164661378E-2</v>
       </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K88" s="1"/>
+      <c r="L88" s="3">
+        <f t="shared" si="21"/>
+        <v>24.906695226438192</v>
+      </c>
+      <c r="M88" s="6">
+        <f t="shared" si="22"/>
+        <v>8.5150768298036267E-3</v>
+      </c>
+      <c r="N88">
+        <f>16/L88</f>
+        <v>0.64239755031876611</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="23"/>
+        <v>5.953503514576642E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>11</v>
       </c>
@@ -4799,23 +5439,40 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1076.7454038000001</v>
       </c>
       <c r="H89" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>5.9575704736995068</v>
       </c>
       <c r="I89" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>5.0120369452404976</v>
       </c>
       <c r="J89" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>6.765551199652696E-2</v>
       </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K89" s="1"/>
+      <c r="L89" s="3">
+        <f t="shared" si="21"/>
+        <v>25.521943437495224</v>
+      </c>
+      <c r="M89" s="6">
+        <f t="shared" si="22"/>
+        <v>8.9204340206817129E-3</v>
+      </c>
+      <c r="N89">
+        <f>16/L89</f>
+        <v>0.62691150613921554</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="23"/>
+        <v>5.9172947879172579E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>12</v>
       </c>
@@ -4832,23 +5489,40 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1174.6313496</v>
       </c>
       <c r="H90" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>6.4182842830306823</v>
       </c>
       <c r="I90" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>5.0341057523925556</v>
       </c>
       <c r="J90" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>7.4405283994178978E-2</v>
       </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K90" s="1"/>
+      <c r="L90" s="3">
+        <f t="shared" si="21"/>
+        <v>27.495619088422369</v>
+      </c>
+      <c r="M90" s="6">
+        <f t="shared" si="22"/>
+        <v>8.3844585989073205E-3</v>
+      </c>
+      <c r="N90">
+        <f>16/L90</f>
+        <v>0.58191088364099242</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="23"/>
+        <v>5.8081224698165235E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>13</v>
       </c>
@@ -4865,11 +5539,11 @@
         <v>0.23</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1272.5172954000002</v>
       </c>
       <c r="H91" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>6.666666666666667</v>
       </c>
       <c r="I91" s="4">
@@ -4877,11 +5551,28 @@
         <v>19.618751116515192</v>
       </c>
       <c r="J91" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>6.9672488414763076E-2</v>
       </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K91" s="1"/>
+      <c r="L91" s="3">
+        <f t="shared" si="21"/>
+        <v>28.559677192982459</v>
+      </c>
+      <c r="M91" s="6">
+        <f t="shared" si="22"/>
+        <v>8.4189425794941857E-3</v>
+      </c>
+      <c r="N91">
+        <f>16/L91</f>
+        <v>0.56023042178962157</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="23"/>
+        <v>5.75325094377548E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>14</v>
       </c>
@@ -4898,23 +5589,40 @@
         <v>0.2</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1370.4032412000001</v>
       </c>
       <c r="H92" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>7.2727272727272725</v>
       </c>
       <c r="I92" s="4">
-        <f t="shared" ref="I92:J95" si="13">G92*SQRT(((0.002*0.002)/(C92*C92))+1/(997*997))</f>
+        <f t="shared" ref="I92:I95" si="24">G92*SQRT(((0.002*0.002)/(C92*C92))+1/(997*997))</f>
         <v>19.625383038042798</v>
       </c>
       <c r="J92" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>8.9927077743705397E-2</v>
       </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K92" s="1"/>
+      <c r="L92" s="3">
+        <f t="shared" si="21"/>
+        <v>31.156011483253593</v>
+      </c>
+      <c r="M92" s="6">
+        <f t="shared" si="22"/>
+        <v>7.6184234667004049E-3</v>
+      </c>
+      <c r="N92">
+        <f>16/L92</f>
+        <v>0.5135445533071531</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="23"/>
+        <v>5.6294527352488723E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>15</v>
       </c>
@@ -4931,23 +5639,40 @@
         <v>0.2</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1468.2891870000001</v>
       </c>
       <c r="H93" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>7.575757575757577</v>
       </c>
       <c r="I93" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>19.632503717666474</v>
       </c>
       <c r="J93" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>9.5042431333721103E-2</v>
       </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K93" s="1"/>
+      <c r="L93" s="3">
+        <f t="shared" si="21"/>
+        <v>32.454178628389158</v>
+      </c>
+      <c r="M93" s="6">
+        <f t="shared" si="22"/>
+        <v>7.522649000261881E-3</v>
+      </c>
+      <c r="N93">
+        <f>16/L93</f>
+        <v>0.49300277117486702</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="23"/>
+        <v>5.5722935282794053E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>16</v>
       </c>
@@ -4964,23 +5689,40 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1566.1751328</v>
       </c>
       <c r="H94" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>7.837620578778135</v>
       </c>
       <c r="I94" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>19.640112623776769</v>
       </c>
       <c r="J94" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.10213379076398868</v>
       </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K94" s="1"/>
+      <c r="L94" s="3">
+        <f t="shared" si="21"/>
+        <v>33.575987053646983</v>
+      </c>
+      <c r="M94" s="6">
+        <f t="shared" si="22"/>
+        <v>7.4969253949374965E-3</v>
+      </c>
+      <c r="N94">
+        <f>16/L94</f>
+        <v>0.4765310391154115</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="23"/>
+        <v>5.5251547171498931E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B95">
         <v>17</v>
       </c>
@@ -4997,20 +5739,37 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>1664.0610786000002</v>
       </c>
       <c r="H95" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>7.9494496534855283</v>
       </c>
       <c r="I95" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>19.648209189166359</v>
       </c>
       <c r="J95" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.10415597968888007</v>
+      </c>
+      <c r="K95" s="1"/>
+      <c r="L95" s="3">
+        <f t="shared" si="21"/>
+        <v>34.055057394811939</v>
+      </c>
+      <c r="M95" s="6">
+        <f t="shared" si="22"/>
+        <v>7.7429503083721657E-3</v>
+      </c>
+      <c r="N95">
+        <f>16/L95</f>
+        <v>0.46982742723074938</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="23"/>
+        <v>5.5056200495298843E-2</v>
       </c>
     </row>
   </sheetData>

--- a/01 - Studium proudění viskózní kapaliny trubicemi kruhového průřezu/Měření.xlsx
+++ b/01 - Studium proudění viskózní kapaliny trubicemi kruhového průřezu/Měření.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\Praktikum-I\01 - Studium proudění viskózní kapaliny trubicemi kruhového průřezu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBC787F-11DB-4231-8B2F-F98D30F3CB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32E4662-917F-42AB-ACE9-0DCDFE6C1CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B1A6E543-93D1-4E69-87E0-7B5E6B6C9A77}"/>
   </bookViews>
@@ -174,11 +174,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -217,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -226,8 +225,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -3445,8 +3443,8 @@
   </sheetPr>
   <dimension ref="B2:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P85" sqref="P85"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4743,7 +4741,7 @@
         <f>H63*SQRT(((0.002*0.002)/(F63*F63))+((0.2*0.2)/(D63*D63)))</f>
         <v>2.038337776683765E-2</v>
       </c>
-      <c r="K63" s="7">
+      <c r="K63" s="1">
         <f>H63/3.14*0.0011*0.0011</f>
         <v>7.7023849384636732E-7</v>
       </c>
@@ -4756,7 +4754,7 @@
         <v>7.9247463038887203E-2</v>
       </c>
       <c r="N63">
-        <f>16/L63</f>
+        <f t="shared" ref="N63:N70" si="10">16/L63</f>
         <v>2.2082925092591026</v>
       </c>
       <c r="O63">
@@ -4785,35 +4783,35 @@
         <v>1174.6313496</v>
       </c>
       <c r="H64" s="4">
-        <f t="shared" ref="H64:H70" si="10">F64/D64*1000</f>
+        <f t="shared" ref="H64:H70" si="11">F64/D64*1000</f>
         <v>2.2782095952827661</v>
       </c>
       <c r="I64" s="4">
-        <f t="shared" ref="I64:I70" si="11">G64*SQRT(((0.0005*0.0005)/(C64*C64))+1/(997*997))</f>
+        <f t="shared" ref="I64:I70" si="12">G64*SQRT(((0.0005*0.0005)/(C64*C64))+1/(997*997))</f>
         <v>5.0341057523925556</v>
       </c>
       <c r="J64" s="1">
-        <f t="shared" ref="J64:J70" si="12">H64*SQRT(((0.002*0.002)/(F64*F64))+((0.2*0.2)/(D64*D64)))</f>
+        <f t="shared" ref="J64:J70" si="13">H64*SQRT(((0.002*0.002)/(F64*F64))+((0.2*0.2)/(D64*D64)))</f>
         <v>5.4978446935997037E-2</v>
       </c>
       <c r="K64" s="1">
-        <f t="shared" ref="K64:K70" si="13">H64/3.14*0.0011*0.0011</f>
+        <f t="shared" ref="K64:K70" si="14">H64/3.14*0.0011*0.0011</f>
         <v>8.7790879308667118E-7</v>
       </c>
       <c r="L64" s="3">
-        <f t="shared" ref="L64:L70" si="14">H64*997/950*3.14*1.1</f>
+        <f t="shared" ref="L64:L70" si="15">H64*997/950*3.14*1.1</f>
         <v>8.2582411939793214</v>
       </c>
       <c r="M64" s="6">
-        <f t="shared" ref="M64:M70" si="15">G64*2*POWER(0.0013,5)*PI()*PI()/(997*(H64*H64/POWER(10,12))*0.25)</f>
+        <f t="shared" ref="M64:M70" si="16">G64*2*POWER(0.0013,5)*PI()*PI()/(997*(H64*H64/POWER(10,12))*0.25)</f>
         <v>6.6546553779337589E-2</v>
       </c>
       <c r="N64">
-        <f>16/L64</f>
+        <f t="shared" si="10"/>
         <v>1.9374585488814271</v>
       </c>
       <c r="O64">
-        <f t="shared" ref="O64:O70" si="16">0.133/L64^(1/4)</f>
+        <f t="shared" ref="O64:O70" si="17">0.133/L64^(1/4)</f>
         <v>7.8456648170411744E-2</v>
       </c>
     </row>
@@ -4838,35 +4836,35 @@
         <v>1370.4032412000001</v>
       </c>
       <c r="H65" s="4">
+        <f t="shared" si="11"/>
+        <v>2.7374760470845878</v>
+      </c>
+      <c r="I65" s="4">
+        <f t="shared" si="12"/>
+        <v>5.083647307433691</v>
+      </c>
+      <c r="J65" s="1">
+        <f t="shared" si="13"/>
+        <v>5.6763867951748655E-2</v>
+      </c>
+      <c r="K65" s="1">
+        <f t="shared" si="14"/>
+        <v>1.0548872665517043E-6</v>
+      </c>
+      <c r="L65" s="3">
+        <f t="shared" si="15"/>
+        <v>9.9230279366634502</v>
+      </c>
+      <c r="M65" s="6">
+        <f t="shared" si="16"/>
+        <v>5.3772355001572542E-2</v>
+      </c>
+      <c r="N65">
         <f t="shared" si="10"/>
-        <v>2.7374760470845878</v>
-      </c>
-      <c r="I65" s="4">
-        <f t="shared" si="11"/>
-        <v>5.083647307433691</v>
-      </c>
-      <c r="J65" s="1">
-        <f t="shared" si="12"/>
-        <v>5.6763867951748655E-2</v>
-      </c>
-      <c r="K65" s="1">
-        <f t="shared" si="13"/>
-        <v>1.0548872665517043E-6</v>
-      </c>
-      <c r="L65" s="3">
-        <f t="shared" si="14"/>
-        <v>9.9230279366634502</v>
-      </c>
-      <c r="M65" s="6">
-        <f t="shared" si="15"/>
-        <v>5.3772355001572542E-2</v>
-      </c>
-      <c r="N65">
-        <f>16/L65</f>
         <v>1.6124110606283237</v>
       </c>
       <c r="O65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.4936013844184829E-2</v>
       </c>
     </row>
@@ -4891,35 +4889,35 @@
         <v>1468.2891870000001</v>
       </c>
       <c r="H66" s="4">
+        <f t="shared" si="11"/>
+        <v>2.9276985743380854</v>
+      </c>
+      <c r="I66" s="4">
+        <f t="shared" si="12"/>
+        <v>5.1110676752189175</v>
+      </c>
+      <c r="J66" s="1">
+        <f t="shared" si="13"/>
+        <v>5.3053772825702394E-2</v>
+      </c>
+      <c r="K66" s="1">
+        <f t="shared" si="14"/>
+        <v>1.1281895780092622E-6</v>
+      </c>
+      <c r="L66" s="3">
+        <f t="shared" si="15"/>
+        <v>10.612562171722587</v>
+      </c>
+      <c r="M66" s="6">
+        <f t="shared" si="16"/>
+        <v>5.0369798514643183E-2</v>
+      </c>
+      <c r="N66">
         <f t="shared" si="10"/>
-        <v>2.9276985743380854</v>
-      </c>
-      <c r="I66" s="4">
-        <f t="shared" si="11"/>
-        <v>5.1110676752189175</v>
-      </c>
-      <c r="J66" s="1">
-        <f t="shared" si="12"/>
-        <v>5.3053772825702394E-2</v>
-      </c>
-      <c r="K66" s="1">
-        <f t="shared" si="13"/>
-        <v>1.1281895780092622E-6</v>
-      </c>
-      <c r="L66" s="3">
-        <f t="shared" si="14"/>
-        <v>10.612562171722587</v>
-      </c>
-      <c r="M66" s="6">
-        <f t="shared" si="15"/>
-        <v>5.0369798514643183E-2</v>
-      </c>
-      <c r="N66">
-        <f>16/L66</f>
         <v>1.5076472336371667</v>
       </c>
       <c r="O66">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.3687967727878695E-2</v>
       </c>
     </row>
@@ -4944,35 +4942,35 @@
         <v>1566.1751328</v>
       </c>
       <c r="H67" s="4">
+        <f t="shared" si="11"/>
+        <v>3.2381866154953234</v>
+      </c>
+      <c r="I67" s="4">
+        <f t="shared" si="12"/>
+        <v>5.1402173525168671</v>
+      </c>
+      <c r="J67" s="1">
+        <f t="shared" si="13"/>
+        <v>5.0425641995793503E-2</v>
+      </c>
+      <c r="K67" s="1">
+        <f t="shared" si="14"/>
+        <v>1.2478362435507459E-6</v>
+      </c>
+      <c r="L67" s="3">
+        <f t="shared" si="15"/>
+        <v>11.738044716011668</v>
+      </c>
+      <c r="M67" s="6">
+        <f t="shared" si="16"/>
+        <v>4.3918541890834391E-2</v>
+      </c>
+      <c r="N67">
         <f t="shared" si="10"/>
-        <v>3.2381866154953234</v>
-      </c>
-      <c r="I67" s="4">
-        <f t="shared" si="11"/>
-        <v>5.1402173525168671</v>
-      </c>
-      <c r="J67" s="1">
-        <f t="shared" si="12"/>
-        <v>5.0425641995793503E-2</v>
-      </c>
-      <c r="K67" s="1">
-        <f t="shared" si="13"/>
-        <v>1.2478362435507459E-6</v>
-      </c>
-      <c r="L67" s="3">
-        <f t="shared" si="14"/>
-        <v>11.738044716011668</v>
-      </c>
-      <c r="M67" s="6">
-        <f t="shared" si="15"/>
-        <v>4.3918541890834391E-2</v>
-      </c>
-      <c r="N67">
-        <f>16/L67</f>
         <v>1.3630890311888717</v>
       </c>
       <c r="O67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.1854289773325836E-2</v>
       </c>
     </row>
@@ -4997,35 +4995,35 @@
         <v>1664.0610786000002</v>
       </c>
       <c r="H68" s="4">
+        <f t="shared" si="11"/>
+        <v>3.2954358213873789</v>
+      </c>
+      <c r="I68" s="4">
+        <f t="shared" si="12"/>
+        <v>5.17106709468377</v>
+      </c>
+      <c r="J68" s="1">
+        <f t="shared" si="13"/>
+        <v>3.469765256658567E-2</v>
+      </c>
+      <c r="K68" s="1">
+        <f t="shared" si="14"/>
+        <v>1.2698972432734806E-6</v>
+      </c>
+      <c r="L68" s="3">
+        <f t="shared" si="15"/>
+        <v>11.945566337990307</v>
+      </c>
+      <c r="M68" s="6">
+        <f t="shared" si="16"/>
+        <v>4.5056233319273158E-2</v>
+      </c>
+      <c r="N68">
         <f t="shared" si="10"/>
-        <v>3.2954358213873789</v>
-      </c>
-      <c r="I68" s="4">
-        <f t="shared" si="11"/>
-        <v>5.17106709468377</v>
-      </c>
-      <c r="J68" s="1">
-        <f t="shared" si="12"/>
-        <v>3.469765256658567E-2</v>
-      </c>
-      <c r="K68" s="1">
-        <f t="shared" si="13"/>
-        <v>1.2698972432734806E-6</v>
-      </c>
-      <c r="L68" s="3">
-        <f t="shared" si="14"/>
-        <v>11.945566337990307</v>
-      </c>
-      <c r="M68" s="6">
-        <f t="shared" si="15"/>
-        <v>4.5056233319273158E-2</v>
-      </c>
-      <c r="N68">
-        <f>16/L68</f>
         <v>1.3394090784222961</v>
       </c>
       <c r="O68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.1540167864720519E-2</v>
       </c>
     </row>
@@ -5050,35 +5048,35 @@
         <v>1761.9470243999999</v>
       </c>
       <c r="H69" s="4">
+        <f t="shared" si="11"/>
+        <v>3.4971148802238154</v>
+      </c>
+      <c r="I69" s="4">
+        <f t="shared" si="12"/>
+        <v>5.2035866650306595</v>
+      </c>
+      <c r="J69" s="1">
+        <f t="shared" si="13"/>
+        <v>3.7047936001596019E-2</v>
+      </c>
+      <c r="K69" s="1">
+        <f t="shared" si="14"/>
+        <v>1.3476143328251009E-6</v>
+      </c>
+      <c r="L69" s="3">
+        <f t="shared" si="15"/>
+        <v>12.676629149372822</v>
+      </c>
+      <c r="M69" s="6">
+        <f t="shared" si="16"/>
+        <v>4.2362773324423959E-2</v>
+      </c>
+      <c r="N69">
         <f t="shared" si="10"/>
-        <v>3.4971148802238154</v>
-      </c>
-      <c r="I69" s="4">
-        <f t="shared" si="11"/>
-        <v>5.2035866650306595</v>
-      </c>
-      <c r="J69" s="1">
-        <f t="shared" si="12"/>
-        <v>3.7047936001596019E-2</v>
-      </c>
-      <c r="K69" s="1">
-        <f t="shared" si="13"/>
-        <v>1.3476143328251009E-6</v>
-      </c>
-      <c r="L69" s="3">
-        <f t="shared" si="14"/>
-        <v>12.676629149372822</v>
-      </c>
-      <c r="M69" s="6">
-        <f t="shared" si="15"/>
-        <v>4.2362773324423959E-2</v>
-      </c>
-      <c r="N69">
-        <f>16/L69</f>
         <v>1.2621651869331212</v>
       </c>
       <c r="O69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.0485647659383255E-2</v>
       </c>
     </row>
@@ -5103,35 +5101,35 @@
         <v>1957.7189160000003</v>
       </c>
       <c r="H70" s="4">
+        <f t="shared" si="11"/>
+        <v>3.515468059461631</v>
+      </c>
+      <c r="I70" s="4">
+        <f t="shared" si="12"/>
+        <v>5.2735101397917097</v>
+      </c>
+      <c r="J70" s="1">
+        <f t="shared" si="13"/>
+        <v>4.2587103192195233E-2</v>
+      </c>
+      <c r="K70" s="1">
+        <f t="shared" si="14"/>
+        <v>1.3546867362893548E-6</v>
+      </c>
+      <c r="L70" s="3">
+        <f t="shared" si="15"/>
+        <v>12.743157260366667</v>
+      </c>
+      <c r="M70" s="6">
+        <f t="shared" si="16"/>
+        <v>4.6579557651619634E-2</v>
+      </c>
+      <c r="N70">
         <f t="shared" si="10"/>
-        <v>3.515468059461631</v>
-      </c>
-      <c r="I70" s="4">
-        <f t="shared" si="11"/>
-        <v>5.2735101397917097</v>
-      </c>
-      <c r="J70" s="1">
-        <f t="shared" si="12"/>
-        <v>4.2587103192195233E-2</v>
-      </c>
-      <c r="K70" s="1">
-        <f t="shared" si="13"/>
-        <v>1.3546867362893548E-6</v>
-      </c>
-      <c r="L70" s="3">
-        <f t="shared" si="14"/>
-        <v>12.743157260366667</v>
-      </c>
-      <c r="M70" s="6">
-        <f t="shared" si="15"/>
-        <v>4.6579557651619634E-2</v>
-      </c>
-      <c r="N70">
-        <f>16/L70</f>
         <v>1.25557581006731</v>
       </c>
       <c r="O70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.0393471022303103E-2</v>
       </c>
     </row>
@@ -5239,7 +5237,7 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" ref="G85:G95" si="17">C85*$E$18*$G$18</f>
+        <f t="shared" ref="G85:G95" si="18">C85*$E$18*$G$18</f>
         <v>685.20162060000007</v>
       </c>
       <c r="H85" s="4">
@@ -5264,7 +5262,7 @@
         <v>1.0835285267085245E-2</v>
       </c>
       <c r="N85">
-        <f>16/L85</f>
+        <f t="shared" ref="N85:N95" si="19">16/L85</f>
         <v>0.86612534152450771</v>
       </c>
       <c r="O85">
@@ -5289,36 +5287,36 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>783.08756640000001</v>
       </c>
       <c r="H86" s="4">
-        <f t="shared" ref="H86:H95" si="18">F86/D86*1000</f>
+        <f t="shared" ref="H86:H95" si="20">F86/D86*1000</f>
         <v>4.8133364639586746</v>
       </c>
       <c r="I86" s="4">
-        <f t="shared" ref="I86:I90" si="19">G86*SQRT(((0.0005*0.0005)/(C86*C86))+1/(997*997))</f>
+        <f t="shared" ref="I86:I90" si="21">G86*SQRT(((0.0005*0.0005)/(C86*C86))+1/(997*997))</f>
         <v>4.9569212299526084</v>
       </c>
       <c r="J86" s="1">
-        <f t="shared" ref="J86:J95" si="20">H86*SQRT(((0.002*0.002)/(F86*F86))+((0.2*0.2)/(D86*D86)))</f>
+        <f t="shared" ref="J86:J95" si="22">H86*SQRT(((0.002*0.002)/(F86*F86))+((0.2*0.2)/(D86*D86)))</f>
         <v>5.2116070974400283E-2</v>
       </c>
       <c r="K86" s="1"/>
       <c r="L86" s="3">
-        <f t="shared" ref="L86:M95" si="21">H86*997/950*3.14*1.3</f>
+        <f t="shared" ref="L86:L95" si="23">H86*997/950*3.14*1.3</f>
         <v>20.62010034478071</v>
       </c>
       <c r="M86" s="6">
-        <f t="shared" ref="M86:M95" si="22">G86*2*POWER(0.0013,5)*PI()*PI()/(997*(H86*H86/POWER(10,12))*0.25)</f>
+        <f t="shared" ref="M86:M95" si="24">G86*2*POWER(0.0013,5)*PI()*PI()/(997*(H86*H86/POWER(10,12))*0.25)</f>
         <v>9.9386917723605916E-3</v>
       </c>
       <c r="N86">
-        <f>16/L86</f>
+        <f t="shared" si="19"/>
         <v>0.77594190777300787</v>
       </c>
       <c r="O86">
-        <f t="shared" ref="O86:O95" si="23">0.133/L86^(1/4)</f>
+        <f t="shared" ref="O86:O95" si="25">0.133/L86^(1/4)</f>
         <v>6.2413558909161573E-2</v>
       </c>
     </row>
@@ -5339,36 +5337,36 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>880.97351219999996</v>
       </c>
       <c r="H87" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5.1751592356687901</v>
       </c>
       <c r="I87" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.9734231689347759</v>
       </c>
       <c r="J87" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5.9765198817982867E-2</v>
       </c>
       <c r="K87" s="1"/>
       <c r="L87" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>22.17013157894737</v>
       </c>
       <c r="M87" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>9.6722330458515714E-3</v>
       </c>
       <c r="N87">
-        <f>16/L87</f>
+        <f t="shared" si="19"/>
         <v>0.72169170232591262</v>
       </c>
       <c r="O87">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.1292815792951469E-2</v>
       </c>
     </row>
@@ -5389,36 +5387,36 @@
         <v>0.2</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>978.85945800000013</v>
       </c>
       <c r="H88" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5.8139534883720936</v>
       </c>
       <c r="I88" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.991801956287679</v>
       </c>
       <c r="J88" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>6.7251650164661378E-2</v>
       </c>
       <c r="K88" s="1"/>
       <c r="L88" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>24.906695226438192</v>
       </c>
       <c r="M88" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8.5150768298036267E-3</v>
       </c>
       <c r="N88">
-        <f>16/L88</f>
+        <f t="shared" si="19"/>
         <v>0.64239755031876611</v>
       </c>
       <c r="O88">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.953503514576642E-2</v>
       </c>
     </row>
@@ -5439,36 +5437,36 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1076.7454038000001</v>
       </c>
       <c r="H89" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5.9575704736995068</v>
       </c>
       <c r="I89" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0120369452404976</v>
       </c>
       <c r="J89" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>6.765551199652696E-2</v>
       </c>
       <c r="K89" s="1"/>
       <c r="L89" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>25.521943437495224</v>
       </c>
       <c r="M89" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8.9204340206817129E-3</v>
       </c>
       <c r="N89">
-        <f>16/L89</f>
+        <f t="shared" si="19"/>
         <v>0.62691150613921554</v>
       </c>
       <c r="O89">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.9172947879172579E-2</v>
       </c>
     </row>
@@ -5489,36 +5487,36 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1174.6313496</v>
       </c>
       <c r="H90" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>6.4182842830306823</v>
       </c>
       <c r="I90" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.0341057523925556</v>
       </c>
       <c r="J90" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7.4405283994178978E-2</v>
       </c>
       <c r="K90" s="1"/>
       <c r="L90" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>27.495619088422369</v>
       </c>
       <c r="M90" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8.3844585989073205E-3</v>
       </c>
       <c r="N90">
-        <f>16/L90</f>
+        <f t="shared" si="19"/>
         <v>0.58191088364099242</v>
       </c>
       <c r="O90">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.8081224698165235E-2</v>
       </c>
     </row>
@@ -5539,11 +5537,11 @@
         <v>0.23</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1272.5172954000002</v>
       </c>
       <c r="H91" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>6.666666666666667</v>
       </c>
       <c r="I91" s="4">
@@ -5551,24 +5549,24 @@
         <v>19.618751116515192</v>
       </c>
       <c r="J91" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>6.9672488414763076E-2</v>
       </c>
       <c r="K91" s="1"/>
       <c r="L91" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>28.559677192982459</v>
       </c>
       <c r="M91" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8.4189425794941857E-3</v>
       </c>
       <c r="N91">
-        <f>16/L91</f>
+        <f t="shared" si="19"/>
         <v>0.56023042178962157</v>
       </c>
       <c r="O91">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.75325094377548E-2</v>
       </c>
     </row>
@@ -5589,36 +5587,36 @@
         <v>0.2</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1370.4032412000001</v>
       </c>
       <c r="H92" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7.2727272727272725</v>
       </c>
       <c r="I92" s="4">
-        <f t="shared" ref="I92:I95" si="24">G92*SQRT(((0.002*0.002)/(C92*C92))+1/(997*997))</f>
+        <f t="shared" ref="I92:I95" si="26">G92*SQRT(((0.002*0.002)/(C92*C92))+1/(997*997))</f>
         <v>19.625383038042798</v>
       </c>
       <c r="J92" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8.9927077743705397E-2</v>
       </c>
       <c r="K92" s="1"/>
       <c r="L92" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>31.156011483253593</v>
       </c>
       <c r="M92" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7.6184234667004049E-3</v>
       </c>
       <c r="N92">
-        <f>16/L92</f>
+        <f t="shared" si="19"/>
         <v>0.5135445533071531</v>
       </c>
       <c r="O92">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.6294527352488723E-2</v>
       </c>
     </row>
@@ -5639,36 +5637,36 @@
         <v>0.2</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1468.2891870000001</v>
       </c>
       <c r="H93" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7.575757575757577</v>
       </c>
       <c r="I93" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>19.632503717666474</v>
       </c>
       <c r="J93" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>9.5042431333721103E-2</v>
       </c>
       <c r="K93" s="1"/>
       <c r="L93" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>32.454178628389158</v>
       </c>
       <c r="M93" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7.522649000261881E-3</v>
       </c>
       <c r="N93">
-        <f>16/L93</f>
+        <f t="shared" si="19"/>
         <v>0.49300277117486702</v>
       </c>
       <c r="O93">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.5722935282794053E-2</v>
       </c>
     </row>
@@ -5689,36 +5687,36 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1566.1751328</v>
       </c>
       <c r="H94" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7.837620578778135</v>
       </c>
       <c r="I94" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>19.640112623776769</v>
       </c>
       <c r="J94" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.10213379076398868</v>
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>33.575987053646983</v>
       </c>
       <c r="M94" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7.4969253949374965E-3</v>
       </c>
       <c r="N94">
-        <f>16/L94</f>
+        <f t="shared" si="19"/>
         <v>0.4765310391154115</v>
       </c>
       <c r="O94">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.5251547171498931E-2</v>
       </c>
     </row>
@@ -5739,36 +5737,36 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1664.0610786000002</v>
       </c>
       <c r="H95" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7.9494496534855283</v>
       </c>
       <c r="I95" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>19.648209189166359</v>
       </c>
       <c r="J95" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.10415597968888007</v>
       </c>
       <c r="K95" s="1"/>
       <c r="L95" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>34.055057394811939</v>
       </c>
       <c r="M95" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>7.7429503083721657E-3</v>
       </c>
       <c r="N95">
-        <f>16/L95</f>
+        <f t="shared" si="19"/>
         <v>0.46982742723074938</v>
       </c>
       <c r="O95">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.5056200495298843E-2</v>
       </c>
     </row>
